--- a/Cookie_data_madi.xlsx
+++ b/Cookie_data_madi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madidavis/Desktop/GitHub/Cookie_lab_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C4C78-B8E0-0740-9F86-B50515D1B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AB96C3-DDCF-7D48-AFBE-A84FDE0DEE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1 - Oatmeal Raisin Walnut" sheetId="1" r:id="rId1"/>
@@ -4360,7 +4360,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
